--- a/biology/Botanique/Salvia_microphylla/Salvia_microphylla.xlsx
+++ b/biology/Botanique/Salvia_microphylla/Salvia_microphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sauge de Graham ou Sauge à petites feuilles (Salvia microphylla) est une espèce de plante appartenant à la famille des Lamiacées. Elle pousse à l'état sauvage dans le sud de l'Arizona et les montagnes de l'est, de l'ouest et du sud du Mexique. Cette espèce s'hybridant facilement, de nombreux hybrides et cultivars ont été introduits dans l'horticulture depuis les années 1990.
 			Salvia microphylla
@@ -513,9 +525,11 @@
           <t>Étymologie et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Salvia est un emprunt au latin saluia désignant diverses sauges[1] chez Pline (H.N. 22, 146), terme dérivant lui-même de saluus « plante donnant la santé ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Salvia est un emprunt au latin saluia désignant diverses sauges chez Pline (H.N. 22, 146), terme dérivant lui-même de saluus « plante donnant la santé ».
 L'épithète spécifique « microphylla » signifie en grec « petites feuilles ». Au Mexique, il est appelé « mirto de monte », c’est-à-dire :  « myrte des montagnes » ou « myrte de brousse ».
 Cette espèce est parfois encore nommée Salvia grahamii, Sauge de Graham[n 1].
 L'espèce a été décrite par le botaniste allemand Karl Sigismund Kunth qui a consacré 24 ans de sa vie à déterminer la collection de 70 000 spécimens ramenés par Alexander von Humboldt (1769-1859) et Aimé Bonpland de leur voyage en Amérique du Sud.
@@ -547,11 +561,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sauge à petites feuilles est un arbrisseau de 1 m à 1,30 m de haut et de large, de port dressé. Toutes les parties sont fortement aromatiques. Les rameaux sont tétragones (à 4 angles) et pubescents[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sauge à petites feuilles est un arbrisseau de 1 m à 1,30 m de haut et de large, de port dressé. Toutes les parties sont fortement aromatiques. Les rameaux sont tétragones (à 4 angles) et pubescents.
 Les feuilles opposées, de forme elliptique à ovale, sont portées par un pétiole de 1 à 1,5 cm de long. Le limbe de taille variable (en gén. de longueur double du pétiole), aux marges crénelées, est vert foncé. À la moindre manipulation, les feuilles dégagent une forte odeur semblable à celle de la menthe et du cassis.
-Les fleurs croissent  en épis terminal, constitué d'une série de verticilles de fleurs, à l'extrémité des rameaux. Le calice est tubuleux, strié, hirsute, bilabié, la lèvre inférieure est bifide. La corolle est rouge pourpre à rose foncé (à l'état sauvage[3]) de longueur triple du calice, le tube est renflé. La lèvre inférieure, bilobée, s'étale largement ; la lèvre supérieure est petite, en forme de casque.
+Les fleurs croissent  en épis terminal, constitué d'une série de verticilles de fleurs, à l'extrémité des rameaux. Le calice est tubuleux, strié, hirsute, bilabié, la lèvre inférieure est bifide. La corolle est rouge pourpre à rose foncé (à l'état sauvage) de longueur triple du calice, le tube est renflé. La lèvre inférieure, bilobée, s'étale largement ; la lèvre supérieure est petite, en forme de casque.
 La floraison s'étale de mai aux gelées.
 </t>
         </is>
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Salvia microphylla est originaire du sud des États-Unis et du Mexique.
 La plante est cultivée dans de nombreuses régions du monde. Elle est subspontanée en région méditerranéenne.
@@ -613,9 +631,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Plant List[4], les synonymes sont :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List, les synonymes sont :
 Salvia gasterantha Briq.
 Salvia grahamii Benth.
 Salvia lemmonii A.Gray
@@ -648,13 +668,15 @@
           <t>Cultivars et hybrides</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La sauge sauvage Salvia microphylla s'hybridant facilement, de nombreux cultivars, de couleurs très variées, ont été créés.
-var 'neurepia' : feuillage vert pâle, fleur rouge foncé[5].
+var 'neurepia' : feuillage vert pâle, fleur rouge foncé.
 var 'wislizenii' (syn. Salvia lemmonii) : plus compact, fleur rouge vermillon
 'Alba': fleur blanche
-'Blush Pink': fleur rose[6]
+'Blush Pink': fleur rose
 'Cerro Potosi': feuille vert foncé, plus arrondi, fleur magenta
 'Desert Blaze': fleur rouge écarlate
 'Graham's Sage':
@@ -666,7 +688,7 @@
 'Pink Blush': fleur rose-magenta, végétation vigoureuse, de 60 à 80 cm
 'Pleasant View': rose
 'Rosita':
-'Ruth Stungo': feuillage panaché, vert et blanc,  de 60 cm de haut[6]
+'Ruth Stungo': feuillage panaché, vert et blanc,  de 60 cm de haut
 'Trebah':fleur lilas
 'Trelawney':
 'Trenance': port dressé, fleurs rose lilas.
@@ -700,7 +722,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Horticole
 Salvia microphylla est un arbuste en touffe, au feuillage caduc, demandant une exposition ensoleillée.
@@ -708,7 +732,7 @@
 Très florifère, elle reste fleurie de mai aux gelées. Elle résiste jusqu'à −12 °C. Pour garder sa vigueur, on la rabat sévèrement avant l'hiver. Plus la taille sera drastique, plus abondante sera la floraison.
 La couleur des fleurs de certains cultivars peuvent changer au cours des saisons : rouge au printemps et à l'automne, bicolore (rouge et blanc) durant les mois les plus chauds.
 Médicinal
-Salvia microphylla est communément utilisée en médecine populaire, dans les rituels de guérison au Mexique et en Amérique centrale[3] d'un grand nombre de maux nommés susto, espanto, mal de aire, nervios, mal de ojo, aigre de viento. Une infusion de la plante en fleur est consommée durant toute la journée que dure le rituel.
+Salvia microphylla est communément utilisée en médecine populaire, dans les rituels de guérison au Mexique et en Amérique centrale d'un grand nombre de maux nommés susto, espanto, mal de aire, nervios, mal de ojo, aigre de viento. Une infusion de la plante en fleur est consommée durant toute la journée que dure le rituel.
 En dehors de cette médecine populaire, l'usage le plus fréquent de Salvia microphylla  est pour les maux d'estomac et les troubles gastro-intestinaux. L'infusion de la plante est prise pour arrêter la diarrhée parfois en association avec la grande camomille (Tanacetum parthenium).
 </t>
         </is>
@@ -738,9 +762,11 @@
           <t>Constituants chimiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>On trouve parmi les constituants chimiques de Salvia microphylla[3],[7] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>On trouve parmi les constituants chimiques de Salvia microphylla, :
 les triterpénoïdes : 3-acétate d'érythrodiol, lupéol, et acide oléanolique. Ce dernier possède une activité antimicrobienne, antiulcéreuse et anti-inflammatoire.
 les diterpénoïdes : acide 7alpha-hydroxysandaracopimarique (le plus abondant) et l'acide 7-oxo-sandaracopimarique, 7,15-isopimaradien-14α,18-diol, 1α-hydroxy-neoclerodane-3,13-diene-18,19: 15,16-diolide et l'acide 12-méthoxycarnosique. Ce dernier est modérément actif contre Staphylococcus aureus.
 les sesquiterpénoïdes  : beta-eudesmol, 8alpha-hydroxy-beta-eudesmol
